--- a/mobi_client/mobi_client/mobi_config/excel/003_成就任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/003_成就任务表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8299E5B-DD5F-4882-8453-444A23115E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DB78D-9C1B-4DA7-8212-086E3D0F2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement|成就任务表++" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/excel/003_成就任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/003_成就任务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DB78D-9C1B-4DA7-8212-086E3D0F2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C067EC8-6221-4617-AAAF-ED61EFA9BDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement|成就任务表++" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>aaint</t>
   </si>
   <si>
-    <t>1;10101001|2;10101002|3;10101003|4;10101004|5;10101005|6;10101006|7;10101007|8;10101008|9;10101009|10;10101010</t>
+    <t>1;10101001|2;10101002|3;10101003|4;10101004|5;10101005|6;10101006|7;10101007|8;10101008|9;10101009|10;10101010|11;10101011|12;10101012|13;10101013|14;10101014|15;10101015|16;10101016|17;10101017|18;10101018|19;10101019|20;10101020</t>
   </si>
   <si>
     <t>队伍等级提升</t>
@@ -2259,7 +2259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2272,6 +2272,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2279,17 +2280,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2327,14 +2331,6 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2415,7 +2411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2755,8 +2751,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35331,7 +35327,10 @@
       <c r="G3606" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F3999">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -35453,7 +35452,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>

--- a/mobi_client/mobi_client/mobi_config/excel/003_成就任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/003_成就任务表.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn\01_source\mobi_client\mobi_client\mobi_config\excel_has_limit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C067EC8-6221-4617-AAAF-ED61EFA9BDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5136BE73-3E1C-424A-BAF8-FF1A740F343A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19650" yWindow="390" windowWidth="14835" windowHeight="16545" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement|成就任务表++" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -2254,6 +2254,15 @@
       <t>,</t>
     </r>
   </si>
+  <si>
+    <t>LimitState</t>
+  </si>
+  <si>
+    <t>2:{ID:DropsNormal}</t>
+  </si>
+  <si>
+    <t>IN:[0;1]</t>
+  </si>
 </sst>
 </file>
 
@@ -2351,7 +2360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2379,6 +2388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2415,7 +2436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2441,6 +2462,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2748,8 +2775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G3606"/>
+  <dimension ref="A1:G3607"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
@@ -2835,59 +2861,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6">
+    <row r="4" spans="1:7" s="10" customFormat="1">
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B5" s="6">
         <v>10101</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>12101</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="6">
         <v>0</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6">
         <v>12101</v>
       </c>
-      <c r="C6" s="8">
-        <v>3</v>
+      <c r="C6" s="7">
+        <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>18</v>
@@ -2899,19 +2919,21 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="6">
-        <v>20100</v>
+        <v>12101</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
       <c r="D7" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -2920,21 +2942,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6">
-        <v>20101</v>
+        <v>20100</v>
       </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
+      <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -2942,22 +2962,22 @@
       <c r="F8" s="7">
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
+      <c r="G8" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6">
-        <v>20102</v>
+        <v>20101</v>
       </c>
       <c r="C9" s="8">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -2966,42 +2986,44 @@
         <v>0</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6">
-        <v>30101</v>
+        <v>20102</v>
       </c>
       <c r="C10" s="8">
-        <v>200001</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="6">
-        <v>50101</v>
+        <v>30101</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8">
+        <v>200001</v>
+      </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -3010,19 +3032,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="6">
-        <v>60101</v>
+        <v>50101</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
@@ -3031,17 +3053,29 @@
         <v>0</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>60101</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6"/>
@@ -10459,14 +10493,14 @@
       <c r="F837" s="6"/>
       <c r="G837" s="6"/>
     </row>
-    <row r="839" spans="1:7">
-      <c r="A839" s="6"/>
-      <c r="B839" s="6"/>
-      <c r="C839" s="6"/>
-      <c r="D839" s="6"/>
-      <c r="E839" s="6"/>
-      <c r="F839" s="6"/>
-      <c r="G839" s="6"/>
+    <row r="838" spans="1:7">
+      <c r="A838" s="6"/>
+      <c r="B838" s="6"/>
+      <c r="C838" s="6"/>
+      <c r="D838" s="6"/>
+      <c r="E838" s="6"/>
+      <c r="F838" s="6"/>
+      <c r="G838" s="6"/>
     </row>
     <row r="840" spans="1:7">
       <c r="A840" s="6"/>
@@ -11719,14 +11753,14 @@
       <c r="F978" s="6"/>
       <c r="G978" s="6"/>
     </row>
-    <row r="980" spans="1:7">
-      <c r="A980" s="6"/>
-      <c r="B980" s="6"/>
-      <c r="C980" s="6"/>
-      <c r="D980" s="6"/>
-      <c r="E980" s="6"/>
-      <c r="F980" s="6"/>
-      <c r="G980" s="6"/>
+    <row r="979" spans="1:7">
+      <c r="A979" s="6"/>
+      <c r="B979" s="6"/>
+      <c r="C979" s="6"/>
+      <c r="D979" s="6"/>
+      <c r="E979" s="6"/>
+      <c r="F979" s="6"/>
+      <c r="G979" s="6"/>
     </row>
     <row r="981" spans="1:7">
       <c r="A981" s="6"/>
@@ -12889,14 +12923,14 @@
       <c r="F1109" s="6"/>
       <c r="G1109" s="6"/>
     </row>
-    <row r="1111" spans="1:7">
-      <c r="A1111" s="6"/>
-      <c r="B1111" s="6"/>
-      <c r="C1111" s="6"/>
-      <c r="D1111" s="6"/>
-      <c r="E1111" s="6"/>
-      <c r="F1111" s="6"/>
-      <c r="G1111" s="6"/>
+    <row r="1110" spans="1:7">
+      <c r="A1110" s="6"/>
+      <c r="B1110" s="6"/>
+      <c r="C1110" s="6"/>
+      <c r="D1110" s="6"/>
+      <c r="E1110" s="6"/>
+      <c r="F1110" s="6"/>
+      <c r="G1110" s="6"/>
     </row>
     <row r="1112" spans="1:7">
       <c r="A1112" s="6"/>
@@ -14059,14 +14093,14 @@
       <c r="F1240" s="6"/>
       <c r="G1240" s="6"/>
     </row>
-    <row r="1242" spans="1:7">
-      <c r="A1242" s="6"/>
-      <c r="B1242" s="6"/>
-      <c r="C1242" s="6"/>
-      <c r="D1242" s="6"/>
-      <c r="E1242" s="6"/>
-      <c r="F1242" s="6"/>
-      <c r="G1242" s="6"/>
+    <row r="1241" spans="1:7">
+      <c r="A1241" s="6"/>
+      <c r="B1241" s="6"/>
+      <c r="C1241" s="6"/>
+      <c r="D1241" s="6"/>
+      <c r="E1241" s="6"/>
+      <c r="F1241" s="6"/>
+      <c r="G1241" s="6"/>
     </row>
     <row r="1243" spans="1:7">
       <c r="A1243" s="6"/>
@@ -15229,14 +15263,14 @@
       <c r="F1371" s="6"/>
       <c r="G1371" s="6"/>
     </row>
-    <row r="1373" spans="1:7">
-      <c r="A1373" s="6"/>
-      <c r="B1373" s="6"/>
-      <c r="C1373" s="6"/>
-      <c r="D1373" s="6"/>
-      <c r="E1373" s="6"/>
-      <c r="F1373" s="6"/>
-      <c r="G1373" s="6"/>
+    <row r="1372" spans="1:7">
+      <c r="A1372" s="6"/>
+      <c r="B1372" s="6"/>
+      <c r="C1372" s="6"/>
+      <c r="D1372" s="6"/>
+      <c r="E1372" s="6"/>
+      <c r="F1372" s="6"/>
+      <c r="G1372" s="6"/>
     </row>
     <row r="1374" spans="1:7">
       <c r="A1374" s="6"/>
@@ -29251,14 +29285,14 @@
       <c r="F2930" s="6"/>
       <c r="G2930" s="6"/>
     </row>
-    <row r="2932" spans="1:7">
-      <c r="A2932" s="6"/>
-      <c r="B2932" s="6"/>
-      <c r="C2932" s="6"/>
-      <c r="D2932" s="6"/>
-      <c r="E2932" s="6"/>
-      <c r="F2932" s="6"/>
-      <c r="G2932" s="6"/>
+    <row r="2931" spans="1:7">
+      <c r="A2931" s="6"/>
+      <c r="B2931" s="6"/>
+      <c r="C2931" s="6"/>
+      <c r="D2931" s="6"/>
+      <c r="E2931" s="6"/>
+      <c r="F2931" s="6"/>
+      <c r="G2931" s="6"/>
     </row>
     <row r="2933" spans="1:7">
       <c r="A2933" s="6"/>
@@ -35326,9 +35360,18 @@
       <c r="F3606" s="6"/>
       <c r="G3606" s="6"/>
     </row>
+    <row r="3607" spans="1:7">
+      <c r="A3607" s="6"/>
+      <c r="B3607" s="6"/>
+      <c r="C3607" s="6"/>
+      <c r="D3607" s="6"/>
+      <c r="E3607" s="6"/>
+      <c r="F3607" s="6"/>
+      <c r="G3607" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F3999">
-    <sortCondition ref="A4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F4000">
+    <sortCondition ref="A5"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35338,7 +35381,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35454,6 +35496,5 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>